--- a/TestData/_old.xlsx
+++ b/TestData/_old.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMI_Automation\IMI_Automation_files\Staging_IMIAssist_Automation\IMIAssist_Automtion\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMI_Automation\IMIAssist_Automtion\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Other_Details_TestData" sheetId="4" r:id="rId4"/>
-    <sheet name="g" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -540,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,16 +718,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>